--- a/FMWT_crosswalk.xlsx
+++ b/FMWT_crosswalk.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Madison/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mthomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="24200" windowHeight="14720" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="EMP_FRP_Veg_FMWT" sheetId="2" r:id="rId2"/>
     <sheet name="EMP_FMWT" sheetId="3" r:id="rId3"/>
-    <sheet name="for20mm" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="for20mm" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1582,11 +1583,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1652,6 +1653,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1713,7 +1727,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1790,6 +1804,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1803,6 +1837,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2077,14 +2114,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -2095,7 +2132,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2143,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2117,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2128,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2139,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2150,7 +2187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2161,7 +2198,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +2209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2183,7 +2220,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2194,7 +2231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2205,7 +2242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2213,7 +2250,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -2221,7 +2258,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -2229,7 +2266,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2237,7 +2274,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -2245,7 +2282,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -2253,13 +2290,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="E18" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -2267,7 +2304,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2275,7 +2312,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -2283,7 +2320,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2291,7 +2328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -2299,7 +2336,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -2307,7 +2344,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -2315,13 +2352,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="E26" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -2329,7 +2366,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
@@ -2337,7 +2374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
@@ -2345,7 +2382,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
@@ -2353,7 +2390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
@@ -2361,7 +2398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
@@ -2369,7 +2406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
@@ -2377,7 +2414,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -2385,7 +2422,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
@@ -2393,13 +2430,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="E36" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
@@ -2407,7 +2444,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
@@ -2415,7 +2452,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
@@ -2423,7 +2460,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -2431,7 +2468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
@@ -2439,7 +2476,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
@@ -2447,7 +2484,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
@@ -2455,7 +2492,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
@@ -2463,13 +2500,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="E45" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
@@ -2477,7 +2514,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -2485,7 +2522,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
@@ -2493,7 +2530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
@@ -2501,13 +2538,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="E50" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>44</v>
       </c>
@@ -2515,7 +2552,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>45</v>
       </c>
@@ -2523,7 +2560,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>46</v>
       </c>
@@ -2531,7 +2568,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>47</v>
       </c>
@@ -2539,7 +2576,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
@@ -2547,7 +2584,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>49</v>
       </c>
@@ -2555,13 +2592,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="E57" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
@@ -2569,7 +2606,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>51</v>
       </c>
@@ -2577,7 +2614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>52</v>
       </c>
@@ -2585,7 +2622,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>53</v>
       </c>
@@ -2593,7 +2630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -2601,7 +2638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
@@ -2609,7 +2646,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>58</v>
       </c>
@@ -2617,7 +2654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
@@ -2625,7 +2662,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
@@ -2633,7 +2670,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>61</v>
       </c>
@@ -2641,7 +2678,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>62</v>
       </c>
@@ -2649,7 +2686,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>63</v>
       </c>
@@ -2657,7 +2694,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
@@ -2665,7 +2702,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
@@ -2673,997 +2710,997 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E72" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E73" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E74" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E75" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E76" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E77" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E78" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E79" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E80" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" s="9" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" s="9" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" s="9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" s="9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" s="9" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" s="9" t="s">
         <v>327</v>
       </c>
@@ -3681,17 +3718,17 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="17" customWidth="1"/>
     <col min="4" max="4" width="19" style="17" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="17"/>
+    <col min="6" max="16384" width="8.875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>328</v>
       </c>
@@ -3708,7 +3745,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>332</v>
       </c>
@@ -3725,7 +3762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>334</v>
       </c>
@@ -3742,7 +3779,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>336</v>
       </c>
@@ -3759,7 +3796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>337</v>
       </c>
@@ -3776,7 +3813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>338</v>
       </c>
@@ -3793,7 +3830,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>339</v>
       </c>
@@ -3810,7 +3847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>340</v>
       </c>
@@ -3827,7 +3864,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>342</v>
       </c>
@@ -3844,7 +3881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>343</v>
       </c>
@@ -3861,7 +3898,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>344</v>
       </c>
@@ -3878,7 +3915,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>345</v>
       </c>
@@ -3895,7 +3932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>345</v>
       </c>
@@ -3912,7 +3949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>99</v>
       </c>
@@ -3929,7 +3966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>347</v>
       </c>
@@ -3946,7 +3983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>351</v>
       </c>
@@ -3963,7 +4000,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>352</v>
       </c>
@@ -3977,7 +4014,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>354</v>
       </c>
@@ -3991,7 +4028,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>356</v>
       </c>
@@ -4008,7 +4045,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>357</v>
       </c>
@@ -4025,7 +4062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>358</v>
       </c>
@@ -4042,7 +4079,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>361</v>
       </c>
@@ -4059,7 +4096,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>363</v>
       </c>
@@ -4076,7 +4113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>363</v>
       </c>
@@ -4093,7 +4130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>365</v>
       </c>
@@ -4110,7 +4147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>366</v>
       </c>
@@ -4127,7 +4164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>367</v>
       </c>
@@ -4144,7 +4181,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>369</v>
       </c>
@@ -4161,7 +4198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>371</v>
       </c>
@@ -4178,7 +4215,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>373</v>
       </c>
@@ -4195,7 +4232,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>158</v>
       </c>
@@ -4212,7 +4249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>158</v>
       </c>
@@ -4229,7 +4266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>375</v>
       </c>
@@ -4246,7 +4283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>376</v>
       </c>
@@ -4263,7 +4300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>377</v>
       </c>
@@ -4280,7 +4317,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>218</v>
       </c>
@@ -4297,7 +4334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>380</v>
       </c>
@@ -4314,7 +4351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>220</v>
       </c>
@@ -4331,7 +4368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>245</v>
       </c>
@@ -4348,7 +4385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>383</v>
       </c>
@@ -4365,7 +4402,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>247</v>
       </c>
@@ -4382,7 +4419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>385</v>
       </c>
@@ -4399,7 +4436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>387</v>
       </c>
@@ -4413,7 +4450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>253</v>
       </c>
@@ -4430,7 +4467,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>390</v>
       </c>
@@ -4447,7 +4484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>391</v>
       </c>
@@ -4464,7 +4501,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>393</v>
       </c>
@@ -4481,7 +4518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>393</v>
       </c>
@@ -4498,7 +4535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>275</v>
       </c>
@@ -4515,7 +4552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>394</v>
       </c>
@@ -4532,7 +4569,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>393</v>
       </c>
@@ -4549,7 +4586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>396</v>
       </c>
@@ -4566,7 +4603,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>396</v>
       </c>
@@ -4583,7 +4620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>397</v>
       </c>
@@ -4600,7 +4637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>398</v>
       </c>
@@ -4617,7 +4654,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>400</v>
       </c>
@@ -4634,7 +4671,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>401</v>
       </c>
@@ -4651,7 +4688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>308</v>
       </c>
@@ -4668,7 +4705,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>403</v>
       </c>
@@ -4685,7 +4722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>404</v>
       </c>
@@ -4702,7 +4739,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>317</v>
       </c>
@@ -4719,7 +4756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>403</v>
       </c>
@@ -4736,7 +4773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>406</v>
       </c>
@@ -4753,9 +4790,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4763,23 +4800,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5" style="17" customWidth="1"/>
     <col min="2" max="3" width="19" style="29" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>328</v>
       </c>
@@ -4795,14 +4830,8 @@
       <c r="E1" t="s">
         <v>412</v>
       </c>
-      <c r="G1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>332</v>
       </c>
@@ -4818,14 +4847,8 @@
       <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>334</v>
       </c>
@@ -4841,14 +4864,8 @@
       <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>336</v>
       </c>
@@ -4864,14 +4881,8 @@
       <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>337</v>
       </c>
@@ -4887,14 +4898,8 @@
       <c r="E5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>338</v>
       </c>
@@ -4910,14 +4915,8 @@
       <c r="E6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>339</v>
       </c>
@@ -4933,14 +4932,8 @@
       <c r="E7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>340</v>
       </c>
@@ -4956,14 +4949,8 @@
       <c r="E8" t="s">
         <v>413</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>342</v>
       </c>
@@ -4979,14 +4966,8 @@
       <c r="E9" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>343</v>
       </c>
@@ -5002,14 +4983,8 @@
       <c r="E10" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>344</v>
       </c>
@@ -5025,14 +5000,8 @@
       <c r="E11" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
@@ -5046,10 +5015,8 @@
       <c r="E12" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>345</v>
       </c>
@@ -5065,14 +5032,8 @@
       <c r="E13" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>99</v>
       </c>
@@ -5088,14 +5049,8 @@
       <c r="E14" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>347</v>
       </c>
@@ -5111,14 +5066,8 @@
       <c r="E15" t="s">
         <v>417</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>351</v>
       </c>
@@ -5134,14 +5083,8 @@
       <c r="E16" t="s">
         <v>419</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>352</v>
       </c>
@@ -5151,14 +5094,8 @@
       <c r="D17" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="G17" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>354</v>
       </c>
@@ -5168,14 +5105,8 @@
       <c r="D18" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="G18" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>356</v>
       </c>
@@ -5191,14 +5122,8 @@
       <c r="E19" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>357</v>
       </c>
@@ -5214,14 +5139,8 @@
       <c r="E20" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>358</v>
       </c>
@@ -5237,14 +5156,8 @@
       <c r="E21" t="s">
         <v>420</v>
       </c>
-      <c r="G21" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>361</v>
       </c>
@@ -5260,14 +5173,8 @@
       <c r="E22" t="s">
         <v>420</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>363</v>
       </c>
@@ -5283,14 +5190,8 @@
       <c r="E23" t="s">
         <v>421</v>
       </c>
-      <c r="G23" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>365</v>
       </c>
@@ -5306,14 +5207,8 @@
       <c r="E24" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>366</v>
       </c>
@@ -5329,14 +5224,8 @@
       <c r="E25" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>367</v>
       </c>
@@ -5352,14 +5241,8 @@
       <c r="E26" t="s">
         <v>368</v>
       </c>
-      <c r="G26" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>369</v>
       </c>
@@ -5375,14 +5258,8 @@
       <c r="E27" t="s">
         <v>370</v>
       </c>
-      <c r="G27" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>371</v>
       </c>
@@ -5398,14 +5275,8 @@
       <c r="E28" t="s">
         <v>159</v>
       </c>
-      <c r="G28" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>373</v>
       </c>
@@ -5421,14 +5292,8 @@
       <c r="E29" t="s">
         <v>160</v>
       </c>
-      <c r="G29" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>158</v>
       </c>
@@ -5444,14 +5309,8 @@
       <c r="E30" t="s">
         <v>374</v>
       </c>
-      <c r="G30" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>375</v>
       </c>
@@ -5467,14 +5326,8 @@
       <c r="E31" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>376</v>
       </c>
@@ -5490,14 +5343,8 @@
       <c r="E32" t="s">
         <v>208</v>
       </c>
-      <c r="G32" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>377</v>
       </c>
@@ -5513,14 +5360,8 @@
       <c r="E33" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>218</v>
       </c>
@@ -5536,14 +5377,8 @@
       <c r="E34" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>380</v>
       </c>
@@ -5559,14 +5394,8 @@
       <c r="E35" t="s">
         <v>219</v>
       </c>
-      <c r="G35" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>220</v>
       </c>
@@ -5582,14 +5411,8 @@
       <c r="E36" t="s">
         <v>220</v>
       </c>
-      <c r="G36" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>245</v>
       </c>
@@ -5605,14 +5428,8 @@
       <c r="E37" t="s">
         <v>245</v>
       </c>
-      <c r="G37" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>383</v>
       </c>
@@ -5628,14 +5445,8 @@
       <c r="E38" t="s">
         <v>246</v>
       </c>
-      <c r="G38" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>247</v>
       </c>
@@ -5651,14 +5462,8 @@
       <c r="E39" t="s">
         <v>247</v>
       </c>
-      <c r="G39" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>385</v>
       </c>
@@ -5674,14 +5479,8 @@
       <c r="E40" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="G40" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>387</v>
       </c>
@@ -5697,14 +5496,8 @@
       <c r="E41" t="s">
         <v>251</v>
       </c>
-      <c r="G41" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>253</v>
       </c>
@@ -5720,14 +5513,8 @@
       <c r="E42" t="s">
         <v>253</v>
       </c>
-      <c r="G42" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>390</v>
       </c>
@@ -5743,14 +5530,8 @@
       <c r="E43" t="s">
         <v>266</v>
       </c>
-      <c r="G43" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>391</v>
       </c>
@@ -5766,14 +5547,8 @@
       <c r="E44" t="s">
         <v>272</v>
       </c>
-      <c r="G44" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>393</v>
       </c>
@@ -5789,14 +5564,8 @@
       <c r="E45" t="s">
         <v>274</v>
       </c>
-      <c r="G45" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>275</v>
       </c>
@@ -5812,14 +5581,8 @@
       <c r="E46" t="s">
         <v>275</v>
       </c>
-      <c r="G46" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>394</v>
       </c>
@@ -5835,14 +5598,8 @@
       <c r="E47" t="s">
         <v>276</v>
       </c>
-      <c r="G47" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>396</v>
       </c>
@@ -5858,14 +5615,8 @@
       <c r="E48" t="s">
         <v>424</v>
       </c>
-      <c r="G48" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>397</v>
       </c>
@@ -5881,14 +5632,8 @@
       <c r="E49" t="s">
         <v>295</v>
       </c>
-      <c r="G49" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>398</v>
       </c>
@@ -5904,14 +5649,8 @@
       <c r="E50" t="s">
         <v>297</v>
       </c>
-      <c r="G50" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>400</v>
       </c>
@@ -5927,14 +5666,8 @@
       <c r="E51" t="s">
         <v>298</v>
       </c>
-      <c r="G51" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>401</v>
       </c>
@@ -5950,14 +5683,8 @@
       <c r="E52" t="s">
         <v>307</v>
       </c>
-      <c r="G52" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>308</v>
       </c>
@@ -5973,14 +5700,8 @@
       <c r="E53" t="s">
         <v>308</v>
       </c>
-      <c r="G53" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>403</v>
       </c>
@@ -5996,14 +5717,8 @@
       <c r="E54" t="s">
         <v>315</v>
       </c>
-      <c r="G54" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>404</v>
       </c>
@@ -6019,14 +5734,8 @@
       <c r="E55" t="s">
         <v>316</v>
       </c>
-      <c r="G55" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>317</v>
       </c>
@@ -6042,14 +5751,8 @@
       <c r="E56" t="s">
         <v>317</v>
       </c>
-      <c r="G56" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>403</v>
       </c>
@@ -6065,14 +5768,8 @@
       <c r="E57" t="s">
         <v>318</v>
       </c>
-      <c r="G57" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>406</v>
       </c>
@@ -6088,28 +5785,16 @@
       <c r="E58" t="s">
         <v>319</v>
       </c>
-      <c r="G58" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D59" s="29" t="s">
         <v>427</v>
       </c>
       <c r="E59" t="s">
         <v>426</v>
       </c>
-      <c r="G59" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>46</v>
       </c>
@@ -6122,14 +5807,8 @@
       <c r="E60" t="s">
         <v>425</v>
       </c>
-      <c r="G60" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
         <v>11</v>
       </c>
@@ -6142,14 +5821,8 @@
       <c r="E61" t="s">
         <v>277</v>
       </c>
-      <c r="G61" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>11</v>
       </c>
@@ -6162,14 +5835,8 @@
       <c r="E62" t="s">
         <v>273</v>
       </c>
-      <c r="G62" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
         <v>46</v>
       </c>
@@ -6182,39 +5849,24 @@
       <c r="E63" t="s">
         <v>423</v>
       </c>
-      <c r="G63" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D64" s="29" t="s">
         <v>428</v>
       </c>
       <c r="E64" t="s">
         <v>422</v>
       </c>
-      <c r="G64" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D65" s="29" t="s">
         <v>429</v>
       </c>
       <c r="E65" t="s">
         <v>168</v>
       </c>
-      <c r="G65" s="30" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>347</v>
       </c>
@@ -6231,7 +5883,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D67" s="29" t="s">
         <v>428</v>
       </c>
@@ -6239,7 +5891,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D68" s="29" t="s">
         <v>430</v>
       </c>
@@ -6247,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
         <v>46</v>
       </c>
@@ -6270,537 +5922,1070 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B2" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="31" t="s">
+      <c r="B13" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="31" t="s">
+      <c r="B14" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B15" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B17" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B19" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B20" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B21" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B22" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B23" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B24" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B25" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B26" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B27" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B29" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B30" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B32" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B34" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B35" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B36" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B37" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B38" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B39" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B40" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="31" t="s">
+      <c r="B41" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B42" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B43" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B44" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B46" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B47" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B49" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B50" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="B51" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="B53" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B55" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="B56" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="B57" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="B58" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="B59" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="B60" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="B61" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="B62" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="B63" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="B64" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="B60" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="B61" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="B63" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" t="s">
-        <v>425</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>